--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4116162.140794851</v>
+        <v>4113590.186276946</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>131.2157267795408</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4006936231289</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>206.1608002224379</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>109.4422623037126</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>358.5239983301257</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>25.31590541686237</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428082</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703272</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>68.17501931583824</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.74133133758728</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183221</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.4614752479206</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>944.4614752479206</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>586.1957766411701</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>200.4075240429259</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718028</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097701</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097701</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2531.572661847995</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191922</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.71788640035</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639637</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121634</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,43 +5267,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111683</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075776</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5343,40 +5343,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057737</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597624</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746423</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>94.65038286230612</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2404.800122633203</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,19 +7430,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-3.296918293926865e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-2.498782050356033e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909865042</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194169</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>72.11969353038562</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.63391537253441</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667956</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
@@ -26320,31 +26320,31 @@
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="I2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900063</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577083</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>5.391791546571767e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,19 +26424,19 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670502</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670456</v>
+        <v>5067.592601670442</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.59260167043</v>
+        <v>5067.592601670454</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670451</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
@@ -26445,16 +26445,16 @@
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670457</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.59260167042</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670478</v>
+        <v>5067.592601670398</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52849.69334140263</v>
+        <v>-52849.69334140225</v>
       </c>
       <c r="C6" t="n">
         <v>537118.1858731421</v>
@@ -26528,40 +26528,40 @@
         <v>537118.1858731423</v>
       </c>
       <c r="E6" t="n">
-        <v>-243416.3004932798</v>
+        <v>-243451.0384187157</v>
       </c>
       <c r="F6" t="n">
-        <v>700956.477264428</v>
+        <v>700921.7393389933</v>
       </c>
       <c r="G6" t="n">
-        <v>700956.4772644285</v>
+        <v>700921.7393389927</v>
       </c>
       <c r="H6" t="n">
-        <v>700956.4772644285</v>
+        <v>700921.7393389929</v>
       </c>
       <c r="I6" t="n">
-        <v>700956.4772644289</v>
+        <v>700921.7393389932</v>
       </c>
       <c r="J6" t="n">
-        <v>524533.2580718357</v>
+        <v>524498.5201464001</v>
       </c>
       <c r="K6" t="n">
-        <v>700956.4772644286</v>
+        <v>700921.7393389927</v>
       </c>
       <c r="L6" t="n">
-        <v>700956.4772644284</v>
+        <v>700921.739338993</v>
       </c>
       <c r="M6" t="n">
-        <v>576747.9665563704</v>
+        <v>576713.2286309344</v>
       </c>
       <c r="N6" t="n">
-        <v>700956.4772644289</v>
+        <v>700921.7393389927</v>
       </c>
       <c r="O6" t="n">
-        <v>700956.4772644286</v>
+        <v>700921.7393389933</v>
       </c>
       <c r="P6" t="n">
-        <v>700956.4772644286</v>
+        <v>700921.7393389931</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245867</v>
+        <v>990.2318361245872</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450924</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450924</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450924</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>275.6603189621707</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.9459416144033</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>44.47535211858258</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361562</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>80.36219811415313</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>107.0060580539452</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.20710234834337</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>141.9938968421885</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212929</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>250.3097721075173</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>616.9033572954385</v>
       </c>
       <c r="O39" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
         <v>421.5361394435301</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>116.3353646931871</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396387</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>485.5616452121051</v>
       </c>
       <c r="O39" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
